--- a/biology/Botanique/Cruckshanksia/Cruckshanksia.xlsx
+++ b/biology/Botanique/Cruckshanksia/Cruckshanksia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cruckshanksia est un genre de plantes à fleurs de la famille des Rubiacées .Ce genre se trouve en Argentine et au Chili[1] .
-Il y a sept espèces dans le genre. Ce sont des herbes et des arbustes qui poussent dans le désert d'Atacama et les Andes. Ils ont des corolles de fleurs jaunes ou roses et des sépales en forme de pétales blancs ou colorés. Cruckshanksia pumila est une espèce annuelle qui pousse dans les régions sèches et n'apparaît qu'après de rares pluies ; il est généralement observé tous les trois à cinq ans lors des épisodes El Niño  [2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cruckshanksia est un genre de plantes à fleurs de la famille des Rubiacées .Ce genre se trouve en Argentine et au Chili .
+Il y a sept espèces dans le genre. Ce sont des herbes et des arbustes qui poussent dans le désert d'Atacama et les Andes. Ils ont des corolles de fleurs jaunes ou roses et des sépales en forme de pétales blancs ou colorés. Cruckshanksia pumila est une espèce annuelle qui pousse dans les régions sèches et n'apparaît qu'après de rares pluies ; il est généralement observé tous les trois à cinq ans lors des épisodes El Niño  .
 </t>
         </is>
       </c>
@@ -512,11 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été décrit par William Jackson Hooker &amp; George Arnott Walker-Arnott et publié dans Botanical Miscellany 3: 361. en 1833.
-Étymologie
-Cruckshanksia : nom générique donné en l'honneur d'Alexander Cruckshanks, un voyageur anglais qui résida quelques années au Chili (vers 1830) et envoya des collections principalement au botaniste William Jackson Hooker.
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cruckshanksia : nom générique donné en l'honneur d'Alexander Cruckshanks, un voyageur anglais qui résida quelques années au Chili (vers 1830) et envoya des collections principalement au botaniste William Jackson Hooker.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cruckshanksia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cruckshanksia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cruckshanksia hymenodon . Hook.&amp; Arn.
 Cruckshanksia lithiophila       Ricardi
